--- a/FinalProject.xlsx
+++ b/FinalProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamil\OneDrive\Documentos\Estudos\PUC\Estudos Sétimo Semestre\Recuperação de dados e informações\WebScrapingKabum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A42D36B-77FE-4404-8310-8EF2B960EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB040D-A74A-4691-825D-FB11D7145C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;\-[$R$-416]\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -243,24 +243,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -268,9 +269,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;\-[$R$-416]\ #,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -284,9 +285,9 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;\-[$R$-416]\ #,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -298,9 +299,9 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;\-[$R$-416]\ #,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -626,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA605A0D-061E-4695-AFA4-566D9EF50AD9}">
-  <dimension ref="A1:F573"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F573"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +641,10 @@
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -662,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45232</v>
       </c>
@@ -681,8 +683,9 @@
       <c r="F2" s="4">
         <v>10105.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45233</v>
       </c>
@@ -702,7 +705,7 @@
         <v>10105.16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45234</v>
       </c>
@@ -722,7 +725,7 @@
         <v>10105.16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45235</v>
       </c>
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45236</v>
       </c>
@@ -762,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45237</v>
       </c>
@@ -782,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45238</v>
       </c>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45239</v>
       </c>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45240</v>
       </c>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45241</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45242</v>
       </c>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45243</v>
       </c>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45244</v>
       </c>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45245</v>
       </c>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45247</v>
       </c>
@@ -12117,10 +12120,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H573"/>
+      <selection activeCell="H2" sqref="H2:J573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
